--- a/project2/ENGI301 BOM.xlsx
+++ b/project2/ENGI301 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandalago/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B78814-588D-B942-9487-34F9A16A2564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEE11E-E687-8E4D-AA72-0877D6EB244B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2880" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>TFT Touchscreen Connector</t>
+  </si>
+  <si>
+    <t>10k Ohm Resistor</t>
+  </si>
+  <si>
+    <t>100k Ohm Resistor</t>
+  </si>
+  <si>
+    <t>Mouser Electronics</t>
+  </si>
+  <si>
+    <t>660-RN73H2BTD1002B10</t>
+  </si>
+  <si>
+    <t>527-AL3006-1M</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -197,8 +212,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +249,12 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -283,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -333,8 +359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +368,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,13 +589,13 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
@@ -587,12 +612,12 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -643,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="9"/>
       <c r="H6" s="1"/>
@@ -660,10 +685,10 @@
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -678,10 +703,10 @@
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
@@ -696,10 +721,10 @@
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
@@ -714,10 +739,10 @@
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
@@ -732,10 +757,10 @@
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
@@ -750,10 +775,10 @@
       <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
@@ -765,25 +790,45 @@
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B8:C8"/>
@@ -792,6 +837,7 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>